--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -252,9 +252,6 @@
     <t>LE.3.00.---01.200923</t>
   </si>
   <si>
-    <t>125.212.203.114,16060</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -265,6 +262,21 @@
   </si>
   <si>
     <t>Thiết bị không tắt được còi do lỗi MCU</t>
+  </si>
+  <si>
+    <t>112.078.011.007,13368</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(STM)</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Thay MCU GD</t>
+  </si>
+  <si>
+    <t>Thiết bị chốt GSM chậm</t>
   </si>
 </sst>
 </file>
@@ -716,6 +728,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,30 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,39 +1112,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1177,58 +1189,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1253,23 +1265,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1307,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1326,7 +1338,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1355,7 +1367,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1384,7 +1396,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1413,7 +1425,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1442,7 +1454,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1483,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1502,7 +1514,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1531,7 +1543,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1560,7 +1572,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1589,7 +1601,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3305,13 +3317,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3323,6 +3328,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3366,39 +3378,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3443,58 +3455,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3519,23 +3531,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,7 +3573,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3592,7 +3604,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3621,7 +3633,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3650,7 +3662,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3679,7 +3691,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3708,7 +3720,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3737,7 +3749,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3768,7 +3780,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3797,7 +3809,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3826,7 +3838,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3855,7 +3867,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5571,6 +5583,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5582,13 +5601,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5632,39 +5644,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5709,58 +5721,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5785,23 +5797,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5827,7 +5839,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5858,7 +5870,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5887,7 +5899,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5916,7 +5928,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5945,7 +5957,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5974,7 +5986,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6003,7 +6015,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6034,7 +6046,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6063,7 +6075,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6092,7 +6104,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6121,7 +6133,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7837,6 +7849,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7848,13 +7867,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7898,39 +7910,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7975,58 +7987,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8051,23 +8063,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8093,7 +8105,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8124,7 +8136,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8153,7 +8165,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8182,7 +8194,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8211,7 +8223,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8240,7 +8252,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8269,7 +8281,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8300,7 +8312,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8329,7 +8341,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8358,7 +8370,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8387,7 +8399,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10103,6 +10115,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10114,13 +10133,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10131,8 +10143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10164,39 +10176,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10241,58 +10253,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10317,49 +10329,73 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="61">
+        <v>44819</v>
+      </c>
       <c r="C6" s="61"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="D6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="38">
+        <v>862205051220657</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>72</v>
+      </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>73</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>20</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10390,7 +10426,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10419,7 +10455,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10448,7 +10484,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10477,7 +10513,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10506,7 +10542,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10535,7 +10571,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10566,7 +10602,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10595,7 +10631,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10624,7 +10660,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10653,7 +10689,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10803,7 +10839,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -10952,7 +10988,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -11304,7 +11340,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12369,6 +12405,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12380,13 +12423,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12397,8 +12433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12430,41 +12466,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12509,58 +12545,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12585,23 +12621,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12626,24 +12662,24 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
         <v>65</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="66" t="s">
         <v>67</v>
-      </c>
-      <c r="P6" s="66" t="s">
-        <v>68</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>18</v>
@@ -12653,7 +12689,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12684,7 +12720,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12713,7 +12749,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12742,7 +12778,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12771,7 +12807,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12800,7 +12836,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12829,7 +12865,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12860,7 +12896,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12889,7 +12925,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12918,7 +12954,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12947,7 +12983,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14663,6 +14699,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14674,13 +14717,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14724,39 +14760,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14801,58 +14837,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14877,23 +14913,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14919,7 +14955,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14950,7 +14986,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14979,7 +15015,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15008,7 +15044,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15037,7 +15073,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15066,7 +15102,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15095,7 +15131,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15126,7 +15162,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15155,7 +15191,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15184,7 +15220,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15213,7 +15249,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16929,6 +16965,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16940,13 +16983,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16990,39 +17026,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17067,58 +17103,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17143,23 +17179,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17185,7 +17221,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17216,7 +17252,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17245,7 +17281,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17274,7 +17310,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17303,7 +17339,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17332,7 +17368,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17361,7 +17397,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17392,7 +17428,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17421,7 +17457,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17450,7 +17486,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17479,7 +17515,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19195,6 +19231,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19206,13 +19249,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19256,39 +19292,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19333,58 +19369,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19409,23 +19445,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19451,7 +19487,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19482,7 +19518,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19511,7 +19547,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19540,7 +19576,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19569,7 +19605,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19598,7 +19634,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19627,7 +19663,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19658,7 +19694,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19687,7 +19723,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19716,7 +19752,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19745,7 +19781,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20976,13 +21012,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20994,6 +21023,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Thể</t>
   </si>
   <si>
-    <t>Thay MCU</t>
-  </si>
-  <si>
     <t>Thiết bị không tắt được còi do lỗi MCU</t>
   </si>
   <si>
@@ -277,6 +274,21 @@
   </si>
   <si>
     <t>Thiết bị chốt GSM chậm</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(GD)</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220315</t>
+  </si>
+  <si>
+    <t>GSM chập chờn</t>
   </si>
 </sst>
 </file>
@@ -728,30 +740,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +757,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,39 +1124,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1189,58 +1201,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1265,23 +1277,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1307,7 +1319,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1338,7 +1350,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1367,7 +1379,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1408,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1425,7 +1437,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1466,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1495,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1514,7 +1526,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1543,7 +1555,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1572,7 +1584,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1613,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3317,6 +3329,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3328,13 +3347,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3378,39 +3390,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3455,58 +3467,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3531,23 +3543,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3573,7 +3585,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3604,7 +3616,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3633,7 +3645,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3674,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3691,7 +3703,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3732,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3749,7 +3761,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3780,7 +3792,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3809,7 +3821,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3838,7 +3850,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3867,7 +3879,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5583,13 +5595,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5601,6 +5606,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5644,39 +5656,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5721,58 +5733,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5797,23 +5809,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,7 +5851,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5870,7 +5882,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5899,7 +5911,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5928,7 +5940,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5957,7 +5969,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5986,7 +5998,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6015,7 +6027,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6046,7 +6058,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6075,7 +6087,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6104,7 +6116,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6133,7 +6145,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7849,13 +7861,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7867,6 +7872,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7910,39 +7922,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7987,58 +7999,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8063,23 +8075,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8105,7 +8117,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8136,7 +8148,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8165,7 +8177,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +8206,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8223,7 +8235,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8252,7 +8264,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8281,7 +8293,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8312,7 +8324,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8341,7 +8353,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8370,7 +8382,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8399,7 +8411,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10115,13 +10127,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10133,6 +10138,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10143,8 +10155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10176,39 +10188,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10253,58 +10265,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10329,23 +10341,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10355,30 +10367,34 @@
       <c r="B6" s="61">
         <v>44819</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44825</v>
+      </c>
       <c r="D6" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="38">
         <v>862205051220657</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="66"/>
+      <c r="L6" s="66" t="s">
+        <v>74</v>
+      </c>
       <c r="M6" s="66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
@@ -10395,7 +10411,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10407,26 +10423,54 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="B7" s="61">
+        <v>44823</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44825</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="38">
+        <v>862205051190199</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="I7" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10455,7 +10499,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10484,7 +10528,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10513,7 +10557,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10542,7 +10586,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10571,7 +10615,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10602,7 +10646,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10631,7 +10675,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10660,7 +10704,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10689,7 +10733,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10807,7 +10851,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11276,7 +11320,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11340,7 +11384,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12405,13 +12449,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12423,6 +12460,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12433,8 +12477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12466,41 +12510,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12545,58 +12589,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12621,23 +12665,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12648,7 +12692,7 @@
         <v>44816</v>
       </c>
       <c r="C6" s="61">
-        <v>44819</v>
+        <v>44825</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
@@ -12662,17 +12706,17 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
         <v>65</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
@@ -12685,11 +12729,11 @@
         <v>18</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12720,7 +12764,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12749,7 +12793,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12778,7 +12822,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12807,7 +12851,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12836,7 +12880,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12865,7 +12909,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12896,7 +12940,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12925,7 +12969,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12954,7 +12998,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12983,7 +13027,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13282,7 +13326,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -13442,7 +13486,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -14699,13 +14743,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14717,6 +14754,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14760,39 +14804,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14837,58 +14881,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14913,23 +14957,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14955,7 +14999,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14986,7 +15030,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15015,7 +15059,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15044,7 +15088,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15073,7 +15117,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15102,7 +15146,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15131,7 +15175,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15162,7 +15206,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15191,7 +15235,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15220,7 +15264,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15249,7 +15293,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16965,13 +17009,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16983,6 +17020,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17026,39 +17070,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17103,58 +17147,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17179,23 +17223,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17221,7 +17265,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17252,7 +17296,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17281,7 +17325,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17310,7 +17354,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17339,7 +17383,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17368,7 +17412,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17397,7 +17441,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17428,7 +17472,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17457,7 +17501,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17486,7 +17530,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17515,7 +17559,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19231,13 +19275,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19249,6 +19286,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19292,39 +19336,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19369,58 +19413,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19445,23 +19489,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19487,7 +19531,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19518,7 +19562,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19547,7 +19591,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19576,7 +19620,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19605,7 +19649,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19634,7 +19678,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19663,7 +19707,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19694,7 +19738,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19723,7 +19767,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19752,7 +19796,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19781,7 +19825,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21012,6 +21056,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21023,13 +21074,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
